--- a/data/pa_seamount_ages_subareal_included.xlsx
+++ b/data/pa_seamount_ages_subareal_included.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="270">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -161,6 +161,9 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">SubTrack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quality</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t xml:space="preserve">40Ar/39Ar</t>
   </si>
   <si>
+    <t xml:space="preserve">HI</t>
+  </si>
+  <si>
     <t xml:space="preserve">g</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kimmei (postshield)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM</t>
   </si>
   <si>
     <t xml:space="preserve">Sharp &amp; Dalrymple (1989) Figure12 after Jackson et al. 1972 Figure 1</t>
@@ -941,7 +950,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -967,12 +976,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1040,7 +1043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1057,25 +1060,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1154,13 +1145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
@@ -1205,6 +1196,9 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="n">
@@ -1220,16 +1214,19 @@
         <v>0.08</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,16 +1243,19 @@
         <v>0.18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,16 +1272,19 @@
         <v>0.04</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,16 +1301,19 @@
         <v>0.04</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,16 +1330,19 @@
         <v>0.06</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,16 +1359,19 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,16 +1388,19 @@
         <v>0.3</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,16 +1417,19 @@
         <v>0.2</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,13 +1444,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,13 +1468,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,13 +1492,16 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,16 +1518,19 @@
         <v>0.4</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,16 +1547,19 @@
         <v>0.4</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,13 +1574,16 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,13 +1598,16 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,13 +1622,16 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,13 +1646,16 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,16 +1672,19 @@
         <v>0.3</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,13 +1699,16 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,13 +1723,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,18 +1747,21 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>27.865</v>
@@ -1719,16 +1776,19 @@
         <v>0.3</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,18 +1803,21 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>28.231</v>
@@ -1769,16 +1832,19 @@
         <v>0.9</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,13 +1859,16 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,16 +1885,19 @@
         <v>0.2</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,18 +1912,21 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>28.9</v>
@@ -1866,16 +1941,19 @@
         <v>0.9</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,13 +1968,16 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,18 +1992,21 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>28.905</v>
@@ -1937,16 +2021,19 @@
         <v>0.7</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,13 +2048,16 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,13 +2072,16 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,13 +2096,16 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,13 +2120,16 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,21 +2146,24 @@
         <v>0.2</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>31.811</v>
@@ -2076,21 +2178,24 @@
         <v>0.7</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>32.082</v>
@@ -2105,21 +2210,24 @@
         <v>0.7</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>32.28</v>
@@ -2134,21 +2242,24 @@
         <v>0.7</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>32.606</v>
@@ -2163,16 +2274,19 @@
         <v>0.5</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,16 +2303,19 @@
         <v>0.2</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,10 +2328,13 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="G43" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,22 +2352,25 @@
         <v>2.42</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>13</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,22 +2387,25 @@
         <v>0.8</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,10 +2418,13 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="G46" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,13 +2439,16 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,22 +2465,25 @@
         <v>0.7</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,22 +2500,25 @@
         <v>0.9</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,10 +2531,13 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="G50" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,22 +2554,25 @@
         <v>0.6</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,13 +2587,16 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,13 +2611,16 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,13 +2635,16 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,13 +2659,16 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,13 +2683,16 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,22 +2709,25 @@
         <v>0.3</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>17</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,13 +2742,16 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2764,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="G59" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,10 +2783,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="G60" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,13 +2804,16 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,13 +2826,16 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2848,13 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="G63" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,22 +2871,25 @@
         <v>1.4</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,13 +2904,16 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2746,17 +2932,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,1470 +2975,1701 @@
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="5" t="n">
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>-50.435</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="0" t="n">
         <v>-139.152</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="0" t="n">
         <v>1.113</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="0" t="n">
         <v>0.042</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="5" t="n">
+      <c r="F2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>-48.2</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="0" t="n">
         <v>-148.8</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="0" t="n">
         <v>13.2</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
+      <c r="F3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="0" t="n">
         <v>-47.35</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="0" t="n">
         <v>-152.166666666667</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>-46.7666666666667</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-154.166666666667</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-46.218</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-155.925</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>-46.2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-155.9</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>-46.1333333333333</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-154.3</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>-45.5833333333333</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-156.666666666667</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>-45.4833333333333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-157.75</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-45.468</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-157.738</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>-45.3333333333333</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-157.533333333333</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>-45.0833333333333</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-159.033333333333</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-44.8433333333333</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-158.473333333333</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>-44.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-159.433333333333</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>-44.275</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-159.815</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>-44.2666666666667</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-159.8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-44</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-160.658</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>-43.7166666666667</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-161.066666666667</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>-43.55</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-161.406</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>-42.7833333333333</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-161.933333333333</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>-42.7166666666667</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-162.366666666667</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>-42.25</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-162.85</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-41.8783333333333</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-163.698333333333</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>-41.65</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-163.033333333333</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>-41.429</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-164.264</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
-        <v>-46.7666666666667</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>-154.166666666667</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>-46.218</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>-155.925</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>-41.4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-164.3</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>-40.8666666666667</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-165.066666666667</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>-40.735</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-165.396</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>-40.6166666666667</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-165.933333333333</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>-40.471</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>-165.697</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>-40.05</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>-166.166666666667</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>-39.9666666666667</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>-165.833333333333</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>-39.889</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-166.104</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="n">
-        <v>-46.2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>-155.9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
-        <v>-46.1333333333333</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>-154.3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
-        <v>-45.5833333333333</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>-156.666666666667</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
-        <v>-45.4833333333333</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>-157.75</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>-45.468</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>-157.738</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E11" s="4" t="n">
+      <c r="H34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>-39.619</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-166.69</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>-39.478</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>-167.251</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
-        <v>-45.3333333333333</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>-157.533333333333</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
-        <v>-45.0833333333333</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>-159.033333333333</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>-44.8433333333333</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>-158.473333333333</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
-        <v>-44.5</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>-159.433333333333</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>-44.275</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>-159.815</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
-        <v>-44.2666666666667</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>-159.8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>-44</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>-160.658</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
-        <v>-43.7166666666667</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>-161.066666666667</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>-43.55</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>-161.406</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="n">
-        <v>-42.7833333333333</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>-161.933333333333</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="n">
-        <v>-42.7166666666667</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>-162.366666666667</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="n">
-        <v>-42.25</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>-162.85</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>-41.8783333333333</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>-163.698333333333</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E24" s="4" t="n">
+      <c r="F36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>-39.154</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>-167.425</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>-38.435</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>-167.927</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>-38.162</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-168.644</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="n">
-        <v>-41.65</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>-163.033333333333</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>-41.429</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>-164.264</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="E26" s="4" t="n">
+      <c r="F39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>-37.973</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>-168.271</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>-37.5833333333333</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>-169.183333333333</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>-36.9333333333333</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>-169.75</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>-36.2333333333333</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>-169.816666666667</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>-36.0666666666667</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>-169.533333333333</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>-35.8166666666667</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>-169.9</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>-170.25</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>-35.3833333333333</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>-170.416666666667</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>-34.99</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>-170.8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>-34.7166666666667</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>-170.65</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>-34.4833333333333</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>-171.183333333333</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>-33.95</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>-171.233333333333</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>-33.6833333333333</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>-171.45</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>-33.3666666666667</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>-171.483333333333</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>-33.0166666666667</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>-171.616666666667</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>-32.7166666666667</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>-171.633333333333</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>-32.5333333333333</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>-171.816666666667</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>-32.235</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>-171.892</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>-30.9333333333333</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>-172.65</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>-30.7833333333333</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>-172.716666666667</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>-30.6166666666667</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>-172.9</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>-30.4166666666667</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>-173.166666666667</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>-30.1666666666667</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>-173.333333333333</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>-29.6166666666667</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>-173.383333333333</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>-29.3166666666667</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>-173.183333333333</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>-173.266666666667</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>-28.65</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>-173.583333333333</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>-28.581</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-173.294</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>-28.5666666666667</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>-173.316666666667</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>-28.15</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>-173.6</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>-28.0166666666667</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>-173.866666666667</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>-27.472</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>-174.413</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>-27.604</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>-174.217</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="E72" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="n">
-        <v>-41.4</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>-164.3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="n">
-        <v>-40.8666666666667</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>-165.066666666667</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>-40.735</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>-165.396</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="n">
-        <v>-40.6166666666667</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>-165.933333333333</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>-40.471</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>-165.697</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="E31" s="4" t="n">
+      <c r="F72" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>-174.433333333333</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>-26.673</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>-174.595</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E74" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="n">
-        <v>-40.05</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>-166.166666666667</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="n">
-        <v>-39.9666666666667</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>-165.833333333333</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>-39.889</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>-166.104</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>-39.619</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>-166.69</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>-39.478</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>-167.251</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>-39.154</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>-167.425</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>-38.435</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>-167.927</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>-38.162</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>-168.644</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>-37.973</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>-168.271</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="n">
-        <v>-37.5833333333333</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>-169.183333333333</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="n">
-        <v>-36.9333333333333</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>-169.75</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="n">
-        <v>-36.2333333333333</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>-169.816666666667</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="n">
-        <v>-36.0666666666667</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>-169.533333333333</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="n">
-        <v>-35.8166666666667</v>
-      </c>
-      <c r="C45" s="4" t="n">
-        <v>-169.9</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="n">
-        <v>-35.6</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>-170.25</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="n">
-        <v>-35.3833333333333</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>-170.416666666667</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="n">
-        <v>-34.99</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>-170.8</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="n">
-        <v>-34.7166666666667</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>-170.65</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="n">
-        <v>-34.4833333333333</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>-171.183333333333</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="n">
-        <v>-33.95</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>-171.233333333333</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4" t="n">
-        <v>-33.6833333333333</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>-171.45</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="n">
-        <v>-33.3666666666667</v>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>-171.483333333333</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="n">
-        <v>-33.0166666666667</v>
-      </c>
-      <c r="C54" s="4" t="n">
-        <v>-171.616666666667</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4" t="n">
-        <v>-32.7166666666667</v>
-      </c>
-      <c r="C55" s="4" t="n">
-        <v>-171.633333333333</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4" t="n">
-        <v>-32.5333333333333</v>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>-171.816666666667</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="5" t="n">
-        <v>-32.235</v>
-      </c>
-      <c r="C57" s="5" t="n">
-        <v>-171.892</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4" t="n">
-        <v>-30.9333333333333</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>-172.65</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4" t="n">
-        <v>-30.7833333333333</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>-172.716666666667</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="4" t="n">
-        <v>-30.6166666666667</v>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>-172.9</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="F74" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="4" t="n">
-        <v>-30.4166666666667</v>
-      </c>
-      <c r="C61" s="4" t="n">
-        <v>-173.166666666667</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="4" t="n">
-        <v>-30.1666666666667</v>
-      </c>
-      <c r="C62" s="4" t="n">
-        <v>-173.333333333333</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="4" t="n">
-        <v>-29.6166666666667</v>
-      </c>
-      <c r="C63" s="4" t="n">
-        <v>-173.383333333333</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4" t="n">
-        <v>-29.3166666666667</v>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>-173.183333333333</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="4" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="C65" s="4" t="n">
-        <v>-173.266666666667</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="4" t="n">
-        <v>-28.65</v>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>-173.583333333333</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="5" t="n">
-        <v>-28.581</v>
-      </c>
-      <c r="C67" s="5" t="n">
-        <v>-173.294</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="4" t="n">
-        <v>-28.5666666666667</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>-173.316666666667</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="4" t="n">
-        <v>-28.15</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>-173.6</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="4" t="n">
-        <v>-28.0166666666667</v>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>-173.866666666667</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="5" t="n">
-        <v>-27.472</v>
-      </c>
-      <c r="C71" s="5" t="n">
-        <v>-174.413</v>
-      </c>
-      <c r="D71" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="5" t="n">
-        <v>-27.604</v>
-      </c>
-      <c r="C72" s="5" t="n">
-        <v>-174.217</v>
-      </c>
-      <c r="D72" s="4" t="n">
-        <v>70.9</v>
-      </c>
-      <c r="E72" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="4" t="n">
-        <v>-27.3</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>-174.433333333333</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B74" s="5" t="n">
-        <v>-26.673</v>
-      </c>
-      <c r="C74" s="5" t="n">
-        <v>-174.595</v>
-      </c>
-      <c r="D74" s="4" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>14</v>
+      <c r="H74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="0" t="n">
         <v>-26.65</v>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="0" t="n">
         <v>-174.583333333333</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>14</v>
+      <c r="F75" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="0" t="n">
         <v>-26.45</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="0" t="n">
         <v>-174.716666666667</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="5" t="n">
+      <c r="F76" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="0" t="n">
         <v>-25.973</v>
       </c>
-      <c r="C77" s="5" t="n">
+      <c r="C77" s="0" t="n">
         <v>-175.017</v>
       </c>
-      <c r="D77" s="4" t="n">
+      <c r="D77" s="0" t="n">
         <v>78.9</v>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>14</v>
+      <c r="F77" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="0" t="n">
         <v>-25.7333333333333</v>
       </c>
-      <c r="C78" s="4" t="n">
+      <c r="C78" s="0" t="n">
         <v>-175.3</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4" t="s">
-        <v>14</v>
+      <c r="F78" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4269,13 +4688,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
@@ -4318,12 +4737,15 @@
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>202</v>
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>-50.435</v>
@@ -4338,31 +4760,34 @@
         <v>0.042</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>-48.2</v>
@@ -4377,24 +4802,27 @@
         <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4409,13 +4837,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,18 +4859,21 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>-46.218</v>
@@ -4455,24 +4889,27 @@
         <v>0.52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4487,13 +4924,16 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,13 +4946,16 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,13 +4968,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,18 +4990,21 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>-45.38</v>
@@ -4570,24 +5019,27 @@
         <v>0.57</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4602,13 +5054,16 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,18 +5076,21 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>-44.84</v>
@@ -4648,24 +5106,27 @@
         <v>0.97</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4680,18 +5141,21 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>-44.275</v>
@@ -4707,24 +5171,27 @@
         <v>0.2</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4739,18 +5206,21 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>-44</v>
@@ -4766,24 +5236,27 @@
         <v>1.8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4798,18 +5271,21 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>-43.57</v>
@@ -4825,24 +5301,27 @@
         <v>7.76</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4857,13 +5336,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,13 +5358,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,18 +5380,21 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>-41.8783333333333</v>
@@ -4922,24 +5410,27 @@
         <v>1.3</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4954,18 +5445,21 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>-41.61</v>
@@ -4981,24 +5475,27 @@
         <v>0.4</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5013,13 +5510,16 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,18 +5532,21 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>-40.735</v>
@@ -5059,24 +5562,27 @@
         <v>5.58</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5091,18 +5597,21 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>-40.44</v>
@@ -5118,24 +5627,27 @@
         <v>2.65</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5150,13 +5662,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,18 +5684,21 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>-39.86</v>
@@ -5195,24 +5713,27 @@
         <v>0.3</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5227,18 +5748,21 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>-39.67</v>
@@ -5253,31 +5777,34 @@
         <v>0.4</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>-39.52</v>
@@ -5292,31 +5819,34 @@
         <v>0.3</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>-39.21</v>
@@ -5331,31 +5861,34 @@
         <v>0.61</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>-38.435</v>
@@ -5370,24 +5903,27 @@
         <v>0.8</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5406,28 +5942,31 @@
         <v>1</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>-38.19</v>
@@ -5443,31 +5982,34 @@
         <v>1.85</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>-38.04</v>
@@ -5483,24 +6025,27 @@
         <v>4.31</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5515,13 +6060,16 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,24 +6086,27 @@
         <v>1</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5570,13 +6121,16 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,13 +6143,16 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,13 +6165,16 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,13 +6187,16 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,13 +6209,16 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,13 +6231,16 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,13 +6253,16 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,13 +6275,16 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,13 +6297,16 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,24 +6324,27 @@
         <v>1.79</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5778,13 +6359,16 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,13 +6381,16 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,13 +6403,16 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,18 +6425,21 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>-32.235</v>
@@ -5862,24 +6455,27 @@
         <v>3.25</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>14</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5894,13 +6490,16 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,13 +6512,16 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,13 +6534,16 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,13 +6556,16 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,24 +6582,27 @@
         <v>1</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6006,13 +6617,16 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6025,13 +6639,16 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,13 +6661,16 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,18 +6683,21 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>-28.581</v>
@@ -6090,24 +6713,27 @@
         <v>2.97</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>29</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6122,13 +6748,16 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,13 +6770,16 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,18 +6792,21 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>-27.52</v>
@@ -6187,24 +6822,27 @@
         <v>1.17</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6219,13 +6857,16 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,18 +6879,21 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>-26.49</v>
@@ -6265,24 +6909,27 @@
         <v>2.4</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6297,18 +6944,21 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>-25.87</v>
@@ -6324,24 +6974,27 @@
         <v>3.45</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6356,13 +7009,16 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6381,13 +7037,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
@@ -6430,10 +7086,13 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>-23.44</v>
@@ -6444,28 +7103,31 @@
       <c r="D2" s="1" t="n">
         <v>0.23</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.004</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>-22.478</v>
@@ -6476,23 +7138,26 @@
       <c r="D3" s="1" t="n">
         <v>1.16</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.005</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,28 +7170,31 @@
       <c r="D4" s="1" t="n">
         <v>6.06</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>-18.858</v>
@@ -6537,23 +7205,26 @@
       <c r="D5" s="1" t="n">
         <v>9.53</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,28 +7237,31 @@
       <c r="D6" s="1" t="n">
         <v>10.34</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>-10.788</v>
@@ -6598,28 +7272,31 @@
       <c r="D7" s="1" t="n">
         <v>45.73</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>-10.4805</v>
@@ -6630,28 +7307,31 @@
       <c r="D8" s="1" t="n">
         <v>48.16</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.19</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>-8.514</v>
@@ -6662,28 +7342,31 @@
       <c r="D9" s="1" t="n">
         <v>48.93</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>-7.473</v>
@@ -6694,28 +7377,31 @@
       <c r="D10" s="1" t="n">
         <v>46.63</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.49</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>-7.475</v>
@@ -6726,28 +7412,31 @@
       <c r="D11" s="1" t="n">
         <v>49.58</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>-8.008</v>
@@ -6758,28 +7447,31 @@
       <c r="D12" s="1" t="n">
         <v>49.82</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>-8.622</v>
@@ -6790,28 +7482,31 @@
       <c r="D13" s="1" t="n">
         <v>50.52</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>-8.27</v>
@@ -6822,28 +7517,31 @@
       <c r="D14" s="1" t="n">
         <v>52.98</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="4" t="n">
         <v>1.36</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>-5.968</v>
@@ -6854,28 +7552,31 @@
       <c r="D15" s="1" t="n">
         <v>54.95</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>-4.669</v>
@@ -6886,28 +7587,31 @@
       <c r="D16" s="1" t="n">
         <v>61.57</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>-5.61</v>
@@ -6918,28 +7622,31 @@
       <c r="D17" s="1" t="n">
         <v>63.66</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.34</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>-0.869</v>
@@ -6950,28 +7657,31 @@
       <c r="D18" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>-1.436</v>
@@ -6982,28 +7692,31 @@
       <c r="D19" s="1" t="n">
         <v>65.6</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>-1.247</v>
@@ -7014,28 +7727,31 @@
       <c r="D20" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="4" t="n">
         <v>0.7</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2.503</v>
@@ -7046,28 +7762,31 @@
       <c r="D21" s="1" t="n">
         <v>69.5</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="4" t="n">
         <v>1.1</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0.733</v>
@@ -7078,28 +7797,31 @@
       <c r="D22" s="1" t="n">
         <v>70.4</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>4.721</v>
@@ -7110,28 +7832,31 @@
       <c r="D23" s="1" t="n">
         <v>70.9</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>3.157</v>
@@ -7142,23 +7867,26 @@
       <c r="D24" s="1" t="n">
         <v>72.4</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
